--- a/execl/test.xlsx
+++ b/execl/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hankwang\Desktop\test_api\test_api\execl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F27B644-A0F6-4956-BB62-798C4CF7BA5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7872B107-3742-42D1-ACB4-D9A4D3DF7B22}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
